--- a/paper/Tables.xlsx
+++ b/paper/Tables.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Workflow</t>
   </si>
@@ -83,13 +83,7 @@
     <t>False negative rates of error for each workflow, i.e. missing the presence of animal or feature given its presence.</t>
   </si>
   <si>
-    <t># Newsletters sent</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gini coefficient </t>
-  </si>
-  <si>
-    <t>Total classifications received</t>
   </si>
   <si>
     <r>
@@ -141,21 +135,6 @@
     <t>Percent commenting</t>
   </si>
   <si>
-    <t>Classifications per volunteer per day</t>
-  </si>
-  <si>
-    <t>total time spent classifying</t>
-  </si>
-  <si>
-    <t>Median classification duration</t>
-  </si>
-  <si>
-    <t>Days available</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -178,16 +157,30 @@
       <t>Volunteers were classified as those who participated on both workflow, the Survey workflow only, and the Yes/No workflow only. Proportion commenting is calculated as the proportion of volunteers classifying on each workflow type who also commented on the Talk forum. Total Talk comments reflects the number of comments made by users in each category. Data are limited to the period of time when both workflows were active, from June 6 2017 to July 5 2017.</t>
     </r>
   </si>
+  <si>
+    <t>Newsletters sent</t>
+  </si>
+  <si>
+    <t>Classification duration</t>
+  </si>
+  <si>
+    <t>Classifications/volunteer/day</t>
+  </si>
+  <si>
+    <t>Classifications received</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +203,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,18 +237,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -248,13 +257,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -532,71 +547,79 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A7" sqref="A7:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -620,13 +643,16 @@
       <c r="G4">
         <v>41</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.75609999999999999</v>
       </c>
       <c r="I4">
         <f>F4/E4/G4</f>
         <v>1.9537203212804144</v>
       </c>
+      <c r="J4">
+        <v>8.4700000000000006</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -650,77 +676,74 @@
       <c r="G5">
         <v>25</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.82950000000000002</v>
       </c>
       <c r="I5">
         <f>F5/E5/G5</f>
         <v>5.006701030927835</v>
       </c>
+      <c r="J5">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
+      <c r="B11">
         <v>229</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="10">
         <v>86159</v>
       </c>
-      <c r="E11" s="9">
+      <c r="D11" s="8">
         <v>0.13973799000000001</v>
       </c>
-      <c r="F11">
+      <c r="E11">
         <v>246</v>
       </c>
     </row>
@@ -729,49 +752,43 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>41</v>
-      </c>
-      <c r="C12">
         <v>234</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="10">
         <v>15616</v>
       </c>
-      <c r="E12" s="9">
+      <c r="D12" s="8">
         <v>4.7008550000000003E-2</v>
       </c>
-      <c r="F12">
+      <c r="E12">
         <v>36</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13">
         <v>243</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="10">
         <v>22756</v>
       </c>
-      <c r="E13" s="9">
+      <c r="D13" s="8">
         <v>3.703704E-2</v>
       </c>
-      <c r="F13">
+      <c r="E13">
         <v>11</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E15" s="8"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -809,8 +826,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H2"/>
     <mergeCell ref="A7:F8"/>
+    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paper/Tables.xlsx
+++ b/paper/Tables.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Workflow</t>
   </si>
@@ -44,15 +45,9 @@
     <t>Total images</t>
   </si>
   <si>
-    <t>Classifications needed</t>
-  </si>
-  <si>
     <t>Both</t>
   </si>
   <si>
-    <t>Workflows classified on</t>
-  </si>
-  <si>
     <t>Survey only</t>
   </si>
   <si>
@@ -68,22 +63,40 @@
     <t>Total Talk comments</t>
   </si>
   <si>
-    <t>Presence of Animal</t>
-  </si>
-  <si>
-    <t>Presence of Whale/Dolphin</t>
-  </si>
-  <si>
-    <t>Presence of Tail</t>
-  </si>
-  <si>
-    <t>Presence of Humpback</t>
-  </si>
-  <si>
-    <t>False negative rates of error for each workflow, i.e. missing the presence of animal or feature given its presence.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gini coefficient </t>
+  </si>
+  <si>
+    <t>Percent commenting</t>
+  </si>
+  <si>
+    <t>Newsletters sent</t>
+  </si>
+  <si>
+    <t>Classifications received (vs. needed)</t>
+  </si>
+  <si>
+    <t>97,130 (95,195)</t>
+  </si>
+  <si>
+    <t>66,405 (66,320)</t>
+  </si>
+  <si>
+    <t>Registered Volunteers</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <t>&gt;1000</t>
+  </si>
+  <si>
+    <t>Classifications/ volunteer/day</t>
+  </si>
+  <si>
+    <t>Med. classification duration (s)</t>
   </si>
   <si>
     <r>
@@ -91,9 +104,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Table 1: </t>
     </r>
@@ -101,38 +113,28 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>Summary statistics for each workflow. Newsletters were calls to action sent to volunteers by email; the first three newsletters promoted both workflows, while the final email promoted the remaining survey workflow. Days to complete indicates the number of calendar days required to retire all 6,632 images. Gini coefficients reflect the amount of inequality in volunteer contributions, calculated by ***.</t>
+      <t>Summary statistics for each workflow. Newsletters were calls to action sent to volunteers by email; the first three newsletters promoted both workflows, while the final email promoted the remaining survey workflow. Days to complete indicates the number of calendar days required to retire all 6,632 images. Gini coefficients reflect the amount of inequality in volunteer contributions, calculated as A/(A+B) where A is the area between the Lorenz curve and the line y = x, and B is the area between the Lorenze curve and the x and y axes.</t>
     </r>
   </si>
   <si>
+    <t>Workflows classified</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Table 3: </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>Accuracy</t>
+      <t xml:space="preserve">distribution of volunteer contributions. </t>
     </r>
-  </si>
-  <si>
-    <t>Percent commenting</t>
   </si>
   <si>
     <r>
@@ -140,9 +142,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Table 2: </t>
     </r>
@@ -150,24 +151,11 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>Volunteers were classified as those who participated on both workflow, the Survey workflow only, and the Yes/No workflow only. Proportion commenting is calculated as the proportion of volunteers classifying on each workflow type who also commented on the Talk forum. Total Talk comments reflects the number of comments made by users in each category. Data are limited to the period of time when both workflows were active, from June 6 2017 to July 5 2017.</t>
+      <t>Volunteers were classified as those who participated on both workflows, the Survey workflow only, and the Yes/No workflow only. Proportion commenting is calculated as the proportion of volunteers classifying on each workflow type who also commented on the Talk forum. Total Talk comments reflects the number of comments made by users in each category. Data are limited to the period of time when both workflows were active, from June 6 2017 to July 5 2017.</t>
     </r>
-  </si>
-  <si>
-    <t>Newsletters sent</t>
-  </si>
-  <si>
-    <t>Classification duration</t>
-  </si>
-  <si>
-    <t>Classifications/volunteer/day</t>
-  </si>
-  <si>
-    <t>Classifications received</t>
   </si>
 </sst>
 </file>
@@ -176,11 +164,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +207,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,24 +245,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -544,27 +553,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -574,9 +584,9 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -586,248 +596,284 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>6632</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11">
+        <v>588</v>
+      </c>
+      <c r="F4" s="11">
+        <v>41</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="H4" s="13">
+        <f>66405/E4/F4</f>
+        <v>2.7544798407167743</v>
+      </c>
+      <c r="I4" s="11">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6632</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11">
+        <v>473</v>
+      </c>
+      <c r="F5" s="11">
+        <v>22</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="H5" s="13">
+        <f>97130/E5/F5</f>
+        <v>9.3340380549682873</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:11" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11">
+        <v>24</v>
+      </c>
+      <c r="C27" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="11">
+        <v>155</v>
+      </c>
+      <c r="C28" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="11">
+        <v>112</v>
+      </c>
+      <c r="C29" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="11">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6632</v>
-      </c>
-      <c r="C4" s="1">
-        <v>66320</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>829</v>
-      </c>
-      <c r="F4">
-        <v>66405</v>
-      </c>
-      <c r="G4">
-        <v>41</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.75609999999999999</v>
-      </c>
-      <c r="I4">
-        <f>F4/E4/G4</f>
-        <v>1.9537203212804144</v>
-      </c>
-      <c r="J4">
-        <v>8.4700000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6632</v>
-      </c>
-      <c r="C5" s="1">
-        <v>95195</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>776</v>
-      </c>
-      <c r="F5">
-        <v>97130</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.82950000000000002</v>
-      </c>
-      <c r="I5">
-        <f>F5/E5/G5</f>
-        <v>5.006701030927835</v>
-      </c>
-      <c r="J5">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B4" s="11">
+        <v>229</v>
+      </c>
+      <c r="C4" s="10">
+        <v>86159</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.13973799000000001</v>
+      </c>
+      <c r="E4" s="11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>234</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15616</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4.7008550000000003E-2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B6" s="11">
+        <v>243</v>
+      </c>
+      <c r="C6" s="10">
+        <v>22756</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3.703704E-2</v>
+      </c>
+      <c r="E6" s="11">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>229</v>
-      </c>
-      <c r="C11" s="10">
-        <v>86159</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.13973799000000001</v>
-      </c>
-      <c r="E11">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>234</v>
-      </c>
-      <c r="C12" s="10">
-        <v>15616</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4.7008550000000003E-2</v>
-      </c>
-      <c r="E12">
-        <v>36</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>243</v>
-      </c>
-      <c r="C13" s="10">
-        <v>22756</v>
-      </c>
-      <c r="D13" s="8">
-        <v>3.703704E-2</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:F8"/>
-    <mergeCell ref="A1:J2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paper/Tables.xlsx
+++ b/paper/Tables.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>Workflow</t>
   </si>
@@ -137,10 +140,120 @@
     </r>
   </si>
   <si>
+    <t>Presence of an animal</t>
+  </si>
+  <si>
+    <t># images</t>
+  </si>
+  <si>
+    <t>Presence of whale/dolphin (given presence of animal)</t>
+  </si>
+  <si>
+    <t>Presence of tail (given presence of whale/dolphin)</t>
+  </si>
+  <si>
+    <t>Presence of humpback (given presence of tail)</t>
+  </si>
+  <si>
+    <t>classifications</t>
+  </si>
+  <si>
+    <t>407/419</t>
+  </si>
+  <si>
+    <t>377/389</t>
+  </si>
+  <si>
+    <t>270/309</t>
+  </si>
+  <si>
+    <t>86/123</t>
+  </si>
+  <si>
+    <t>Raw % Agreement</t>
+  </si>
+  <si>
+    <t>Aggregated % agreement</t>
+  </si>
+  <si>
+    <t>1   Yes</t>
+  </si>
+  <si>
+    <t>2   Yes</t>
+  </si>
+  <si>
+    <t>3   Yes</t>
+  </si>
+  <si>
+    <t>4   Yes</t>
+  </si>
+  <si>
+    <t>No (Q1)                        30            477   551          0.8656987</t>
+  </si>
+  <si>
+    <t>No (Q2)                        26            910   916          0.9934498</t>
+  </si>
+  <si>
+    <t>No (Q3)                        30            384   425          0.9035294</t>
+  </si>
+  <si>
+    <t>No (Q4)                        30            287   334          0.8592814</t>
+  </si>
+  <si>
+    <t>477/551</t>
+  </si>
+  <si>
+    <t>910/916</t>
+  </si>
+  <si>
+    <t>384/425</t>
+  </si>
+  <si>
+    <t>287/334</t>
+  </si>
+  <si>
+    <t>12.2  (3.4)</t>
+  </si>
+  <si>
+    <t>12.9 (6.1)</t>
+  </si>
+  <si>
+    <t>110 (51)</t>
+  </si>
+  <si>
+    <t>103 (22)</t>
+  </si>
+  <si>
+    <t>48 (22)</t>
+  </si>
+  <si>
+    <t>20 (9.6)</t>
+  </si>
+  <si>
+    <t>Mean and (median) Session Length in minutes</t>
+  </si>
+  <si>
+    <t>Mean and (median) Classifications per Session</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Volunteer agreement with expert classifications. Raw agreement rates indicate the percentage of individual volunteer classifications that agreed with the expert classification for any given image. Aggregated agreement rates reflect the percentage of images that were correctly identified when compared with expert classifications.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -149,12 +262,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Volunteers were classified as those who participated on both workflows, the Survey workflow only, and the Yes/No workflow only. Proportion commenting is calculated as the proportion of volunteers classifying on each workflow type who also commented on the Talk forum. Total Talk comments reflects the number of comments made by users in each category. Data are limited to the period of time when both workflows were active, from June 6 2017 to July 5 2017.</t>
+      <t>Volunteers were classified as those who participated on both workflows, the Survey workflow only, and the Yes/No workflow only. Data are limited to the period of time when both workflows were active, from June 6 2017 to July 5 2017. Proportion commenting is calculated as the proportion of volunteers classifying on each workflow type who also commented on the Talk forum. Total Talk comments reflects the number of comments made by users in each category. Session length and classifications per session are given as mean values with median values in parentheses, and were calculated for sessions in which volunteers classified on the specified workflows (regardless of their activity in other sessions).</t>
     </r>
   </si>
 </sst>
@@ -168,7 +281,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +333,47 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -237,29 +391,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,15 +502,113 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -553,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,118 +905,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>6632</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>588</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>41</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>0.75609999999999999</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <f>66405/E4/F4</f>
         <v>2.7544798407167743</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="29">
         <v>6632</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="31">
         <v>3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="31">
         <v>473</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="31">
         <v>22</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="32">
         <v>0.82950000000000002</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="33">
         <f>97130/E5/F5</f>
         <v>9.3340380549682873</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="31">
         <v>2.83</v>
       </c>
     </row>
@@ -696,66 +1028,6 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
-        <v>1</v>
-      </c>
-      <c r="B27" s="11">
-        <v>24</v>
-      </c>
-      <c r="C27" s="11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="11">
-        <v>155</v>
-      </c>
-      <c r="C28" s="11">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="11">
-        <v>112</v>
-      </c>
-      <c r="C29" s="11">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="11">
-        <v>11</v>
-      </c>
-      <c r="C30" s="11">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -768,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,101 +1052,551 @@
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="1" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="F3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="40">
         <v>229</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="41">
         <v>86159</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="42">
         <v>0.13973799000000001</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="40">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="F4" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="40">
         <v>234</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="41">
         <v>15616</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="42">
         <v>4.7008550000000003E-2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="40">
         <v>36</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="45">
         <v>243</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="46">
         <v>22756</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="47">
         <v>3.703704E-2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="45">
         <v>11</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="18">
+        <v>55</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="18">
+        <v>97.14</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="F4" s="18">
+        <v>30</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="20">
+        <v>86.56</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="18">
+        <v>51</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="18">
+        <v>96.92</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.9607</v>
+      </c>
+      <c r="F5" s="18">
+        <v>30</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="20">
+        <v>99.34</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18">
+        <v>41</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="18">
+        <v>87.38</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="F6" s="18">
+        <v>30</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="20">
+        <v>90.35</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0.9667</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="23">
+        <v>16</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="23">
+        <v>69.92</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23">
+        <v>30</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="25">
+        <v>85.93</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>155</v>
+      </c>
+      <c r="C4" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8">
+        <v>112</v>
+      </c>
+      <c r="C5" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/paper/Tables.xlsx
+++ b/paper/Tables.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Workflow</t>
   </si>
@@ -176,34 +176,7 @@
     <t>Aggregated % agreement</t>
   </si>
   <si>
-    <t>1   Yes</t>
-  </si>
-  <si>
-    <t>2   Yes</t>
-  </si>
-  <si>
-    <t>3   Yes</t>
-  </si>
-  <si>
-    <t>4   Yes</t>
-  </si>
-  <si>
-    <t>No (Q1)                        30            477   551          0.8656987</t>
-  </si>
-  <si>
-    <t>No (Q2)                        26            910   916          0.9934498</t>
-  </si>
-  <si>
-    <t>No (Q3)                        30            384   425          0.9035294</t>
-  </si>
-  <si>
-    <t>No (Q4)                        30            287   334          0.8592814</t>
-  </si>
-  <si>
     <t>477/551</t>
-  </si>
-  <si>
-    <t>910/916</t>
   </si>
   <si>
     <t>384/425</t>
@@ -269,6 +242,9 @@
       </rPr>
       <t>Volunteers were classified as those who participated on both workflows, the Survey workflow only, and the Yes/No workflow only. Data are limited to the period of time when both workflows were active, from June 6 2017 to July 5 2017. Proportion commenting is calculated as the proportion of volunteers classifying on each workflow type who also commented on the Talk forum. Total Talk comments reflects the number of comments made by users in each category. Session length and classifications per session are given as mean values with median values in parentheses, and were calculated for sessions in which volunteers classified on the specified workflows (regardless of their activity in other sessions).</t>
     </r>
+  </si>
+  <si>
+    <t>921/927</t>
   </si>
 </sst>
 </file>
@@ -535,15 +511,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,6 +546,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,11 +567,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -905,29 +881,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="49" thickBot="1" x14ac:dyDescent="0.25">
@@ -1057,125 +1033,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="A1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>57</v>
+      <c r="F3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="37">
         <v>229</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="38">
         <v>86159</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="39">
         <v>0.13973799000000001</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>246</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>52</v>
+      <c r="F4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="37">
         <v>234</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="38">
         <v>15616</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="39">
         <v>4.7008550000000003E-2</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="37">
         <v>36</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>54</v>
+      <c r="F5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="42">
         <v>243</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="43">
         <v>22756</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="44">
         <v>3.703704E-2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="42">
         <v>11</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>53</v>
+      <c r="F6" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="8"/>
@@ -1197,7 +1173,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,67 +1187,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="A1" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="54" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="18">
@@ -1290,7 +1266,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H4" s="20">
         <v>86.56</v>
@@ -1301,7 +1277,7 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="18">
@@ -1320,10 +1296,10 @@
         <v>30</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" s="20">
-        <v>99.34</v>
+        <v>99.35</v>
       </c>
       <c r="I5" s="21">
         <v>1</v>
@@ -1331,7 +1307,7 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="50" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="18">
@@ -1350,7 +1326,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H6" s="20">
         <v>90.35</v>
@@ -1361,7 +1337,7 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="23">
@@ -1380,7 +1356,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H7" s="25">
         <v>85.93</v>
@@ -1468,39 +1444,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="8"/>
     </row>
   </sheetData>

--- a/paper/Tables.xlsx
+++ b/paper/Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,30 +99,6 @@
     <t>Classifications/ volunteer/day</t>
   </si>
   <si>
-    <t>Med. classification duration (s)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics for each workflow. Newsletters were calls to action sent to volunteers by email; the first three newsletters promoted both workflows, while the final email promoted the remaining survey workflow. Days to complete indicates the number of calendar days required to retire all 6,632 images. Gini coefficients reflect the amount of inequality in volunteer contributions, calculated as A/(A+B) where A is the area between the Lorenz curve and the line y = x, and B is the area between the Lorenze curve and the x and y axes.</t>
-    </r>
-  </si>
-  <si>
     <t>Workflows classified</t>
   </si>
   <si>
@@ -245,6 +221,30 @@
   </si>
   <si>
     <t>921/927</t>
+  </si>
+  <si>
+    <t>Classification duration (s)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics for each workflow. Newsletters were calls to action sent to volunteers by email; the first three newsletters promoted both workflows, while the final email promoted the remaining survey workflow. Days to complete indicates the number of calendar days required to retire all 6,632 images. Gini coefficients reflect the amount of inequality in volunteer contributions, calculated as A/(A+B) where A is the area between the Lorenz curve and the line y = x, and B is the area between the Lorenze curve and the x and y axes.  Classification duration  is given as the median time to complete a classification.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,7 +882,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -932,7 +932,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -1034,7 +1034,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="3" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>8</v>
@@ -1069,10 +1069,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1092,10 +1092,10 @@
         <v>246</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1115,10 +1115,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1138,10 +1138,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1188,7 +1188,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -1221,40 +1221,40 @@
         <v>0</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="18">
         <v>55</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="18">
         <v>97.14</v>
@@ -1266,7 +1266,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="20">
         <v>86.56</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="18">
         <v>51</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="18">
         <v>96.92</v>
@@ -1296,7 +1296,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="20">
         <v>99.35</v>
@@ -1308,13 +1308,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="18">
         <v>41</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="18">
         <v>87.38</v>
@@ -1326,7 +1326,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="20">
         <v>90.35</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="23">
         <v>16</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="23">
         <v>69.92</v>
@@ -1356,7 +1356,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="25">
         <v>85.93</v>
@@ -1482,7 +1482,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
